--- a/server/config/excel/测试.xlsx
+++ b/server/config/excel/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="26040" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -49,31 +49,31 @@
     <t>int</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>int2int</t>
-  </si>
-  <si>
-    <t>int2str</t>
-  </si>
-  <si>
-    <t>str2int</t>
-  </si>
-  <si>
-    <t>str2str</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>str[]</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>map[int]int</t>
+  </si>
+  <si>
+    <t>map[int]string</t>
+  </si>
+  <si>
+    <t>map[string]int</t>
+  </si>
+  <si>
+    <t>map[string]string</t>
+  </si>
+  <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>[string]</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>float[]</t>
+    <t>[float]</t>
   </si>
   <si>
     <t>id</t>
@@ -169,19 +169,7 @@
     <t>0.1|0.2|0.5</t>
   </si>
   <si>
-    <t>1:123|2:432|3:459</t>
-  </si>
-  <si>
     <t>1:abc|5:def</t>
-  </si>
-  <si>
-    <t>a:123|b:459</t>
-  </si>
-  <si>
-    <t>123|43|9</t>
-  </si>
-  <si>
-    <t>0.1|0.2|0.6</t>
   </si>
   <si>
     <t>hgff</t>
@@ -277,7 +265,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,12 +614,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,46 +738,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,55 +792,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,43 +849,52 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1219,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1214,7 +1228,7 @@
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
@@ -1223,107 +1237,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1432,39 +1446,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>656</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9898</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1472,25 +1462,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -1499,7 +1489,7 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1507,25 +1497,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
         <v>980</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -1534,7 +1524,7 @@
         <v>0.5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1542,25 +1532,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2">
         <v>898</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -1569,31 +1559,30 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>898</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -1602,7 +1591,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
